--- a/biology/Zoologie/General_and_Comparative_Endocrinology/General_and_Comparative_Endocrinology.xlsx
+++ b/biology/Zoologie/General_and_Comparative_Endocrinology/General_and_Comparative_Endocrinology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 General and Comparative Endocrinology (abrégé en Gen. Comp. Endocrinol.) est une revue évaluée par les pairs publiée par Elsevier et dédiée à l'endocrinologie. 
-Elle possède un facteur d'impact de 2,7 en 2022[1].
-Le journal se concentre sur les différents systèmes endocrines des vertébrés et des invertébrés, ainsi que leurs implications au niveau moléculaire, cellulaire et de l'organisme[1].
+Elle possède un facteur d'impact de 2,7 en 2022.
+Le journal se concentre sur les différents systèmes endocrines des vertébrés et des invertébrés, ainsi que leurs implications au niveau moléculaire, cellulaire et de l'organisme.
 </t>
         </is>
       </c>
